--- a/data/trans_orig/P36B09_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B09_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D0797DA-B76A-41D7-BADE-0961C29DD9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38BEE26D-DAC6-43D6-93B8-B0AC2EA6B6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{58840C23-B1A7-43B3-8AD4-4FB8749147F0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA4A4DCE-2D80-47DA-8305-33F463FB1041}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="180">
   <si>
     <t>Población según el número de raciones de legumbres que consumen a la semana en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -77,169 +77,172 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,17%</t>
+    <t>7,07%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>Una o dos a la semana</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>Tres o más por semana</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>Una o dos a la semana</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
   </si>
   <si>
     <t>62,87%</t>
   </si>
   <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>Tres o más por semana</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
   </si>
   <si>
     <t>31,57%</t>
   </si>
   <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
   <si>
     <t>35,19%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>33,45%</t>
   </si>
   <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -248,64 +251,64 @@
     <t>6,97%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>63,99%</t>
   </si>
   <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
   </si>
   <si>
     <t>65,57%</t>
   </si>
   <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
   </si>
   <si>
     <t>64,78%</t>
   </si>
   <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
   </si>
   <si>
     <t>27,82%</t>
@@ -314,16 +317,16 @@
     <t>25,36%</t>
   </si>
   <si>
-    <t>30,19%</t>
+    <t>30,54%</t>
   </si>
   <si>
     <t>28,43%</t>
   </si>
   <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -332,82 +335,79 @@
     <t>8,38%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>8,19%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>62,78%</t>
   </si>
   <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
   </si>
   <si>
     <t>55,15%</t>
   </si>
   <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
   </si>
   <si>
     <t>58,62%</t>
   </si>
   <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
   </si>
   <si>
     <t>28,84%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>33,08%</t>
   </si>
   <si>
     <t>36,81%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
   </si>
   <si>
     <t>33,19%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -416,160 +416,163 @@
     <t>9,99%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>65,91%</t>
   </si>
   <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
   </si>
   <si>
     <t>67,43%</t>
   </si>
   <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>23,45%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>6,28%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>64,19%</t>
   </si>
   <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>63,39%</t>
   </si>
   <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
   </si>
   <si>
     <t>28,38%</t>
   </si>
   <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A322C9E-3B5D-4F4D-80B2-2149ED0BF8DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56542DA2-1044-42B8-BDBA-1A1578176D1C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1395,13 +1398,13 @@
         <v>716422</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1416,13 +1419,13 @@
         <v>172897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>352</v>
@@ -1431,13 +1434,13 @@
         <v>208324</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>544</v>
@@ -1446,13 +1449,13 @@
         <v>381221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,7 +1511,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1520,13 +1523,13 @@
         <v>72387</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>84</v>
@@ -1535,13 +1538,13 @@
         <v>70053</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>147</v>
@@ -1550,13 +1553,13 @@
         <v>142441</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1571,13 +1574,13 @@
         <v>664992</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>990</v>
@@ -1586,13 +1589,13 @@
         <v>694034</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>1643</v>
@@ -1601,13 +1604,13 @@
         <v>1359025</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1622,13 +1625,13 @@
         <v>301869</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>440</v>
@@ -1637,13 +1640,13 @@
         <v>294451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>688</v>
@@ -1652,13 +1655,13 @@
         <v>596320</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,7 +1717,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1726,13 +1729,13 @@
         <v>61045</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -1741,13 +1744,13 @@
         <v>70290</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -1756,13 +1759,13 @@
         <v>131335</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,13 +1780,13 @@
         <v>457544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>664</v>
@@ -1792,13 +1795,13 @@
         <v>482225</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>1083</v>
@@ -1807,13 +1810,13 @@
         <v>939768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,10 +1831,10 @@
         <v>210183</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>117</v>
@@ -2159,7 +2162,7 @@
         <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>589</v>
@@ -2168,13 +2171,13 @@
         <v>522887</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2192,13 @@
         <v>2169436</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>3454</v>
@@ -2204,13 +2207,13 @@
         <v>2382121</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>5662</v>
@@ -2219,13 +2222,13 @@
         <v>4551557</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2243,13 @@
         <v>959260</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>1540</v>
@@ -2255,13 +2258,13 @@
         <v>1146190</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>2471</v>
@@ -2270,13 +2273,13 @@
         <v>2105450</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2335,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
